--- a/Excel/Form00004.xlsx
+++ b/Excel/Form00004.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawile/IdeaProjects/Keydom/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCEE05-C33C-BA45-AF71-EBD5B3226D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1C22A4A-7C6D-49D8-A4AF-D070AB8A0D53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="503" windowWidth="33263" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IT设备安装、变更申请表" sheetId="1" r:id="rId1"/>
+    <sheet name="IT设备安装及变更申请表" sheetId="1" r:id="rId1"/>
+    <sheet name="IT设备安装、变更记录表" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,74 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装/变更
-时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>鼠标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑安全管理员意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全负责人意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>签字：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网络线缆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请者部门负责人意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,11 +298,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       IT设备安装/变更申请表</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间:
+Date:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称
+Equipment name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间
+Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更
+change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人
+applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型
+type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号
+Equipment No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人
+Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人
+Reviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装及变更细节
+Installation or change details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果
+result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注
+note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至
+to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请日期：
+Date：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门
+Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装/变更时间
+Installation / change date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更 change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装 Installation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请原因
+reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑安全管理员意见
+Comments of logical security administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请者部门负责人意见
+Comments of department head of applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全负责人意见
+Comments of safety director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       IT设备安装/变更申请表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It equipment installation / change application form</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  IT设备安装/变更记录表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It equipment installation / change record</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">安装
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Installation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Start date</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>End date</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +575,22 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,7 +600,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -611,13 +766,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +841,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,6 +874,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,7 +929,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -744,8 +937,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,361 +1268,367 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="3.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1328125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+    <row r="1" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="51" customHeight="1">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A5" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="32"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="51" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="G7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="G8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
       <c r="B9" s="14"/>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="G9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="33"/>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="G10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="33"/>
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="G11" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="32"/>
       <c r="B12" s="15"/>
       <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" ht="51" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="51" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="45.25" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="36"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36"/>
+      <c r="B17" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="31.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="45.25" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" ht="19.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+    <row r="18" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="36"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="36"/>
+      <c r="B21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="31.25" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="1:8" ht="45.25" customHeight="1">
-      <c r="A23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" ht="19.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+    <row r="22" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="45.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="36"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="36"/>
+      <c r="B25" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" ht="31.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8">
+    <row r="26" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1397,7 +1638,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1407,7 +1648,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1417,7 +1658,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1427,7 +1668,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1437,7 +1678,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1447,7 +1688,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1457,7 +1698,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1467,7 +1708,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1477,7 +1718,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1487,7 +1728,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1497,7 +1738,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1507,7 +1748,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1517,7 +1758,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1527,7 +1768,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1537,7 +1778,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1547,7 +1788,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1557,7 +1798,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1567,7 +1808,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1577,7 +1818,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1587,7 +1828,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1597,7 +1838,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1607,7 +1848,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1617,7 +1858,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1627,7 +1868,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1637,7 +1878,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1647,7 +1888,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1657,7 +1898,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1667,16 +1908,16 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
     </row>
   </sheetData>
@@ -1720,11 +1961,265 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;16                       &amp;"宋体,加粗"&amp;18四川科道芯国智能技术股份有限公司&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L编制部门:安全策略部&amp;R文件编号：JK-R-SCAQ-BD095  Rev: A2</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B021CAE6-7A50-4298-9827-21F04B1CF60F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.1328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.1328125" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="4.796875" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="55.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57">
+        <f>IT设备安装及变更申请表!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="26">
+        <f>IT设备安装及变更申请表!F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="63">
+        <f>IT设备安装及变更申请表!F4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="64">
+        <f>IT设备安装及变更申请表!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="21">
+        <f>IT设备安装及变更申请表!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="22">
+        <f>IT设备安装及变更申请表!B5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="62">
+        <f>IT设备安装及变更申请表!B3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="52">
+        <f>IT设备安装及变更申请表!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="155" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="115.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:K9"/>
+    <mergeCell ref="B10:K10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"宋体,常规"&amp;18            &amp;"宋体,加粗"四川科道芯国智能技术股份有限公司&amp;R&amp;G</oddHeader>
+    <oddFooter>&amp;L编制部门:安全策略部&amp;C&amp;"-,倾斜"密级：2  机密&amp;R文件编号：KD-LJ01-BD00005  Rev:A3</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
 </file>